--- a/Card Reader-Element_Profile.xlsx
+++ b/Card Reader-Element_Profile.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjramsey/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorbernhard/Downloads/system-surveyor-main 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F93AEFB1-AAEB-704A-A35E-6BE724705C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EA0728-0EB9-E54A-AC55-2F22BF249BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element Profiles" sheetId="1" r:id="rId1"/>
     <sheet name="Accessories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="88">
   <si>
     <t>Export date: Apr 18, 2025</t>
   </si>
@@ -90,9 +103,6 @@
   </si>
   <si>
     <t>Device Price</t>
-  </si>
-  <si>
-    <t>249</t>
   </si>
   <si>
     <t>Installation Hours</t>
@@ -274,6 +284,33 @@
   <si>
     <t>ACC-DR20-WP</t>
   </si>
+  <si>
+    <t>Third Party Reader</t>
+  </si>
+  <si>
+    <t>Assa Wireless Reader</t>
+  </si>
+  <si>
+    <t>E6003E</t>
+  </si>
+  <si>
+    <t>67DC62</t>
+  </si>
+  <si>
+    <t>Keypad Reader</t>
+  </si>
+  <si>
+    <t>F26311</t>
+  </si>
+  <si>
+    <t>KEYPAD-WLA</t>
+  </si>
+  <si>
+    <t>Smart Card /  iClass - 13 Mhz,MIFARE</t>
+  </si>
+  <si>
+    <t>https://support.rhombussystems.com/hc/en-us/articles/35683836283789-Keypad-Reader-Setup-for-Access-Control</t>
+  </si>
 </sst>
 </file>
 
@@ -442,7 +479,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -479,15 +516,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="4" applyFont="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -798,7 +847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:SJ51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -813,7 +864,7 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="17"/>
@@ -1317,9 +1368,9 @@
       <c r="SI1" s="17"/>
       <c r="SJ1" s="18"/>
     </row>
-    <row r="2" spans="3:504" ht="200" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:504" ht="200" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="17"/>
@@ -1823,7 +1874,7 @@
       <c r="SI2" s="17"/>
       <c r="SJ2" s="18"/>
     </row>
-    <row r="3" spans="3:504" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:504" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1833,9 +1884,15 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2333,7 +2390,7 @@
       <c r="SI3" s="3"/>
       <c r="SJ3" s="3"/>
     </row>
-    <row r="4" spans="3:504" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:504" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
@@ -2842,7 +2899,7 @@
       <c r="SJ4" s="5"/>
     </row>
     <row r="5" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C5" s="15"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
@@ -4348,16 +4405,22 @@
       </c>
     </row>
     <row r="6" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C6" s="15"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -4856,16 +4919,22 @@
       <c r="SJ6" s="5"/>
     </row>
     <row r="7" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C7" s="15"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -5364,7 +5433,7 @@
       <c r="SJ7" s="5"/>
     </row>
     <row r="8" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
@@ -5373,7 +5442,9 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -5872,7 +5943,7 @@
       <c r="SJ8" s="5"/>
     </row>
     <row r="9" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C9" s="15"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
@@ -5885,8 +5956,8 @@
       <c r="G9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>17</v>
+      <c r="H9" s="5">
+        <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>17</v>
@@ -7378,13 +7449,11 @@
       </c>
     </row>
     <row r="10" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C10" s="15"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -7885,1518 +7954,1510 @@
       <c r="SI10" s="5"/>
       <c r="SJ10" s="5"/>
     </row>
-    <row r="11" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C11" s="14"/>
+    <row r="11" spans="3:504" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="15"/>
       <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="DZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="ED11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="ER11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="ES11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="ET11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="EZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="FZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="GZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="HZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="ID11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="II11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="IZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="JZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="KZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="LZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="ME11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="ML11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="MZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="ND11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="NZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="ON11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="OZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="PZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="QZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RK11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RL11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RM11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RN11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RO11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RP11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RQ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RR11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RS11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RT11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RU11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RV11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RW11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RX11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RY11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="RZ11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="SA11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="SB11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="SC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="SD11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="SE11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="SF11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="SG11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="SH11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="SI11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="SJ11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="3:504" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="CZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="DZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="ED11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="ER11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="ES11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="ET11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="EZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="FZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="GZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="HZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="ID11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="II11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="IZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="JZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="KZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="LZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="ME11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="ML11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="MZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="ND11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="NZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="ON11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="OZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="PZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="QZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RK11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RL11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RM11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RN11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RO11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RP11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RQ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RR11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RS11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RT11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RU11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RV11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RW11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RX11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RY11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="RZ11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="SA11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="SB11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="SC11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="SD11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="SE11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="SF11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="SG11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="SH11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="SI11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="SJ11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -9900,9 +9961,9 @@
       <c r="SJ12" s="5"/>
     </row>
     <row r="13" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C13" s="15"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -10406,9 +10467,9 @@
       <c r="SJ13" s="5"/>
     </row>
     <row r="14" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C14" s="15"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -10911,10 +10972,10 @@
       <c r="SI14" s="5"/>
       <c r="SJ14" s="5"/>
     </row>
-    <row r="15" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C15" s="14"/>
+    <row r="15" spans="3:504" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="15"/>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -11417,12 +11478,12 @@
       <c r="SI15" s="5"/>
       <c r="SJ15" s="5"/>
     </row>
-    <row r="16" spans="3:504" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:504" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -11926,16 +11987,18 @@
       <c r="SJ16" s="5"/>
     </row>
     <row r="17" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C17" s="15"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -12434,9 +12497,9 @@
       <c r="SJ17" s="5"/>
     </row>
     <row r="18" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C18" s="15"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -12940,9 +13003,9 @@
       <c r="SJ18" s="7"/>
     </row>
     <row r="19" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C19" s="15"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -13446,9 +13509,9 @@
       <c r="SJ19" s="5"/>
     </row>
     <row r="20" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C20" s="15"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -13952,9 +14015,9 @@
       <c r="SJ20" s="7"/>
     </row>
     <row r="21" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C21" s="15"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -14458,9 +14521,9 @@
       <c r="SJ21" s="5"/>
     </row>
     <row r="22" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C22" s="15"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -14964,16 +15027,18 @@
       <c r="SJ22" s="7"/>
     </row>
     <row r="23" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C23" s="15"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -15472,9 +15537,9 @@
       <c r="SJ23" s="5"/>
     </row>
     <row r="24" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C24" s="15"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -15978,9 +16043,9 @@
       <c r="SJ24" s="7"/>
     </row>
     <row r="25" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C25" s="15"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -16484,9 +16549,9 @@
       <c r="SJ25" s="5"/>
     </row>
     <row r="26" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C26" s="15"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -16990,9 +17055,9 @@
       <c r="SJ26" s="7"/>
     </row>
     <row r="27" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C27" s="15"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -17496,9 +17561,9 @@
       <c r="SJ27" s="5"/>
     </row>
     <row r="28" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C28" s="15"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -18002,9 +18067,9 @@
       <c r="SJ28" s="7"/>
     </row>
     <row r="29" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C29" s="15"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -18508,16 +18573,18 @@
       <c r="SJ29" s="5"/>
     </row>
     <row r="30" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C30" s="15"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -19016,16 +19083,18 @@
       <c r="SJ30" s="7"/>
     </row>
     <row r="31" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C31" s="15"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -19524,9 +19593,9 @@
       <c r="SJ31" s="5"/>
     </row>
     <row r="32" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C32" s="15"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -20029,10 +20098,10 @@
       <c r="SI32" s="5"/>
       <c r="SJ32" s="5"/>
     </row>
-    <row r="33" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C33" s="14"/>
+    <row r="33" spans="3:504" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="15"/>
       <c r="D33" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -20535,12 +20604,12 @@
       <c r="SI33" s="5"/>
       <c r="SJ33" s="5"/>
     </row>
-    <row r="34" spans="3:504" ht="19" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:504" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -21043,12 +21112,12 @@
       <c r="SI34" s="5"/>
       <c r="SJ34" s="5"/>
     </row>
-    <row r="35" spans="3:504" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:504" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -21551,10 +21620,10 @@
       <c r="SI35" s="5"/>
       <c r="SJ35" s="5"/>
     </row>
-    <row r="36" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C36" s="14"/>
+    <row r="36" spans="3:504" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="15"/>
       <c r="D36" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -22057,12 +22126,12 @@
       <c r="SI36" s="5"/>
       <c r="SJ36" s="5"/>
     </row>
-    <row r="37" spans="3:504" ht="19" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:504" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -22565,17 +22634,19 @@
       <c r="SI37" s="9"/>
       <c r="SJ37" s="9"/>
     </row>
-    <row r="38" spans="3:504" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:504" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="13"/>
       <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="H38" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
@@ -23074,16 +23145,18 @@
       <c r="SJ38" s="10"/>
     </row>
     <row r="39" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C39" s="15"/>
+      <c r="C39" s="14"/>
       <c r="D39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="H39" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
@@ -23582,14 +23655,14 @@
       <c r="SJ39" s="10"/>
     </row>
     <row r="40" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C40" s="15"/>
+      <c r="C40" s="14"/>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="H40" s="21"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -24087,15 +24160,15 @@
       <c r="SI40" s="10"/>
       <c r="SJ40" s="10"/>
     </row>
-    <row r="41" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C41" s="14"/>
+    <row r="41" spans="3:504" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="15"/>
       <c r="D41" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="H41" s="22"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
@@ -24593,12 +24666,12 @@
       <c r="SI41" s="11"/>
       <c r="SJ41" s="11"/>
     </row>
-    <row r="42" spans="3:504" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:504" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C42" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -25102,9 +25175,9 @@
       <c r="SJ42" s="10"/>
     </row>
     <row r="43" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C43" s="15"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -25608,9 +25681,9 @@
       <c r="SJ43" s="10"/>
     </row>
     <row r="44" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C44" s="15"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -26114,9 +26187,9 @@
       <c r="SJ44" s="10"/>
     </row>
     <row r="45" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C45" s="15"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -26620,9 +26693,9 @@
       <c r="SJ45" s="10"/>
     </row>
     <row r="46" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C46" s="15"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -27126,9 +27199,9 @@
       <c r="SJ46" s="10"/>
     </row>
     <row r="47" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C47" s="15"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -27632,9 +27705,9 @@
       <c r="SJ47" s="10"/>
     </row>
     <row r="48" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C48" s="15"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -28138,9 +28211,9 @@
       <c r="SJ48" s="10"/>
     </row>
     <row r="49" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C49" s="15"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -28644,9 +28717,9 @@
       <c r="SJ49" s="10"/>
     </row>
     <row r="50" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C50" s="15"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -29150,9 +29223,9 @@
       <c r="SJ50" s="10"/>
     </row>
     <row r="51" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C51" s="14"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -29670,43 +29743,43 @@
     <mergeCell ref="C37"/>
   </mergeCells>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E5:SJ5" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E5:G5 I5:SJ5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"In place,Proposed,To be replaced,To be upgraded,To be removed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E6:SJ6" xr:uid="{00000000-0002-0000-0000-0000F5010000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E6:G6 I6:SJ6" xr:uid="{00000000-0002-0000-0000-0000F5010000}">
       <formula1>"F84107,E6003E,BAAB8A,67DC62,43AD47,49494A,F26311,CD00FC,D3D4D5,59C5DD,F8C309,1A6BD7"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Only numbers between 0 and 10 are allowed." prompt="Please input a number between 0 and 10" sqref="E9:SJ9" xr:uid="{00000000-0002-0000-0000-0000E9030000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Only numbers between 0 and 10 are allowed." prompt="Please input a number between 0 and 10" sqref="E9:G9 I9:SJ9" xr:uid="{00000000-0002-0000-0000-0000E9030000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Only numbers between 0 and 12 are allowed." prompt="Please input a number between 0 and 12" sqref="E11:SJ11" xr:uid="{00000000-0002-0000-0000-0000DD050000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Only numbers between 0 and 12 are allowed." prompt="Please input a number between 0 and 12" sqref="E11:G11 I11:SJ11" xr:uid="{00000000-0002-0000-0000-0000DD050000}">
       <formula1>0</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E12:SJ12" xr:uid="{00000000-0002-0000-0000-0000D1070000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E12:G12 I12:SJ12" xr:uid="{00000000-0002-0000-0000-0000D1070000}">
       <formula1>"Installing Company,Customer / Owner,Third Party,Undeclared,Undetermined,Fire Alarm Installer,Mechanical/Electrical,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E13:SJ13" xr:uid="{00000000-0002-0000-0000-0000C5090000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E13:G13 I13:SJ13" xr:uid="{00000000-0002-0000-0000-0000C5090000}">
       <formula1>"Standard - 1 gang,Slim (mullion mount),Large,Biometric,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E14:SJ14" xr:uid="{00000000-0002-0000-0000-0000B90B0000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E14:G14 I14:SJ14" xr:uid="{00000000-0002-0000-0000-0000B90B0000}">
       <formula1>"Wall next to door,Mullion,Door face,Pedestal,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E16:SJ16" xr:uid="{00000000-0002-0000-0000-0000AD0D0000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E16:G16 I16:SJ16" xr:uid="{00000000-0002-0000-0000-0000AD0D0000}">
       <formula1>"Single Gang,Mullion,Mini-Mullion,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E23:SJ30 E18:SJ21" xr:uid="{00000000-0002-0000-0000-0000A10F0000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="I18:SJ21 E18:G21 E23:G30 I23:SJ30" xr:uid="{00000000-0002-0000-0000-0000A10F0000}">
       <formula1>"YES"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Text exceeds maximum length." promptTitle="Allowed Input" prompt="Maximum text length is 30 characters." sqref="E22:SJ22" xr:uid="{00000000-0002-0000-0000-000071170000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Text exceeds maximum length." promptTitle="Allowed Input" prompt="Maximum text length is 30 characters." sqref="E22:G22 I22:SJ22" xr:uid="{00000000-0002-0000-0000-000071170000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E31:SJ31" xr:uid="{00000000-0002-0000-0000-000005290000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E31:G31 I31:SJ31" xr:uid="{00000000-0002-0000-0000-000005290000}">
       <formula1>"Weigand,RS-485 (OSDP),Proprietary,Other,RS-232,RS-422"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E32:SJ32" xr:uid="{00000000-0002-0000-0000-0000F92A0000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E32:G32 I32:SJ32" xr:uid="{00000000-0002-0000-0000-0000F92A0000}">
       <formula1>"Black,Gray,White,Beige,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29731,8 +29804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29747,42 +29820,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>
